--- a/database_design/Demo/模拟数据-张三（李四教练）副本.xlsx
+++ b/database_design/Demo/模拟数据-张三（李四教练）副本.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawhi/CodeProjects/PycharmProjects/Dpdb/database_design/Demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luolingbing/Desktop/python_test/Dpdb/database_design/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>体脂含量%</t>
     <rPh sb="0" eb="1">
@@ -375,6 +375,10 @@
     <rPh sb="3" eb="4">
       <t>ri</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +737,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -888,7 +892,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="1">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1">
         <v>31</v>
@@ -904,8 +908,8 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
